--- a/华夏基金工作日志/工作文件/wind导入债券信息功能设计.xlsx
+++ b/华夏基金工作日志/工作文件/wind导入债券信息功能设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\test\华夏基金工作日志\工作文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C115FECE-14CD-4045-BD3C-45FDAFDCDEF9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B435095-378F-4ED6-B1FA-0D7EB02AB3D0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="8376" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19776" windowHeight="8376" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目创建" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="114">
   <si>
     <t>一、行情数据中心新项目datacenter.provider</t>
   </si>
@@ -176,7 +176,388 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一、创建债券二级分类</t>
+    <t>一、通过债券代码获取二级分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级分类名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020600</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020b00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020800</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020700</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020900</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020a00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>a101020400</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地方政府债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可交换债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>短期融资债券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中期票据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行票据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可分离债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产支持证券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际开发机构债券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府支持机构债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>同业存单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、获取债权的杂项分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过债券代码在CbondIndustryWind表中检索S_INFO_INDUSTRYCODE字段来获取二级分类</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果检索为null则该债券不发送给oms</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与债券二级分类对应关系</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂项分类名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CODE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与债券</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>杂项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分类对应关系。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从第一个表依次检索，如果未检索到则检索下一个表，以此类推，知道检索完所有表格。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.如果所有表格都为检索到结果则该债券不发送给oms</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_INFO_INDUSTRYCODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>城投债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁道债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房地产债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易所私募债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动利率债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非政策金融债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>含权债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondDescription</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondPlateWind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通金融债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondIndustrySHC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永续债券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非公开定向债务融资工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>融资债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>次级债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_CHOOSERIGHT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_INFO_INTERESTTYPE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大额存单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondIndustryWind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_INFO_INDUSTRYCODE2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超短起融资债券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策金融债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合票据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>私募债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产支持票据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CBondSECIndustriesClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过债券代码依次在CBondPlateWind检索S_INFO_INDUSTRYCODE字段、CBondSECIndustriesClass检索SEC_IND_CODE字段、CBondDescription检索B_INFO_INTERESTTYPE字段及IS_CHOOSERIGHT字段和B_INFO_SUBORDINATEORNOT字段、CBondIndustrySHC检索S_INFO_INDUSTRYCODE字段、CBondIndustryWind检索S_INFO_INDUSTRYCODE2字段和S_INFO_INDUSTRYCODE字段来获取杂项分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +612,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,6 +697,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1020,21 +1434,498 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE44AE71-1445-4F35-A89F-4AF16EEC20F1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>46</v>
+      </c>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1000016455</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1000004566</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="14">
+        <v>1000002993</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1000004571</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="14">
+        <v>1000011872</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1000013981</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14">
+        <v>1000016044</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14">
+        <v>1000005966</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14">
+        <v>1211010000</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14">
+        <v>1000011550</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="7"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="14">
+        <v>501001000</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="14">
+        <v>1000011775</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="14">
+        <v>1000016431</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1000004194</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1000002990</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1000004195</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="14">
+        <v>1000009967</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D46" s="14">
+        <v>1000007926</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>